--- a/biology/Botanique/Gris_de_Chin/Gris_de_Chin.xlsx
+++ b/biology/Botanique/Gris_de_Chin/Gris_de_Chin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gris de Chin est une variété de poirier.
 </t>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a été obtenue en 1832 par Norbert Bouzin, doyen de Chin, (Ramegnies-Chin), en Belgique, Hainaut. Ramegnies-Chin se trouve près de Tournai, non loin de Lille, dans le Nord de la France[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été obtenue en 1832 par Norbert Bouzin, doyen de Chin, (Ramegnies-Chin), en Belgique, Hainaut. Ramegnies-Chin se trouve près de Tournai, non loin de Lille, dans le Nord de la France.
 </t>
         </is>
       </c>
@@ -542,32 +556,14 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vigueur - fertilité : De moyenne vigueur et très-fertile.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Vigueur - fertilité : De moyenne vigueur et très-fertile.
 Scions : peu allongés, flexueux, roux foncé.
 Bourgeons : sans console, écartés du scion, coniques, aigus.
-Boutons à fruit : assez gros, ovales, pointus.
-Feuilles
-Forme : ovales, aplaties, denticulées.
-Pétiole : moyen.
-Stipules : filiformes, recourbées sur le scion.
-Fleurs
-Forme : moyennes, en bouquets courts.
-Corole : étalée, à pétales ovales.
-Fruit
-Forme et calibre
-Grandeur : moyen, piriforme, oblique, roux, souvent coloré du côté du soleil, scabre.
-Pédoncule très court, obliquement terminal.
-Calice : affleurant.
-Peau : grise, rude.
-Chair
-Chair : fine, très-fondante, sucrée, juteuse et vineuse, excellente.
-Date de récolte et maturité
-Maturité : septembre et octobre.
-Productivité
-Cet arbre est d'une fertilité remarquable.
-</t>
+Boutons à fruit : assez gros, ovales, pointus.</t>
         </is>
       </c>
     </row>
@@ -592,10 +588,243 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Forme : ovales, aplaties, denticulées.
+Pétiole : moyen.
+Stipules : filiformes, recourbées sur le scion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gris_de_Chin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gris_de_Chin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Forme : moyennes, en bouquets courts.
+Corole : étalée, à pétales ovales.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gris_de_Chin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gris_de_Chin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Forme et calibre</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Grandeur : moyen, piriforme, oblique, roux, souvent coloré du côté du soleil, scabre.
+Pédoncule très court, obliquement terminal.
+Calice : affleurant.
+Peau : grise, rude.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gris_de_Chin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gris_de_Chin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Chair</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Chair : fine, très-fondante, sucrée, juteuse et vineuse, excellente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gris_de_Chin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gris_de_Chin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Date de récolte et maturité</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Maturité : septembre et octobre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gris_de_Chin</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gris_de_Chin</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Productivité</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre est d'une fertilité remarquable.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Gris_de_Chin</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gris_de_Chin</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Observations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Culture : de plein vent en pyramide.
 Son fruit est supérieur au Beurré gris.
